--- a/Planisphereサイト_テスト仕様書.xlsx
+++ b/Planisphereサイト_テスト仕様書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087D7DF1-7D4D-4291-A805-150E838C696D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF8B00F-E4F0-4AD2-9604-A20C8F225D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2158,22 +2158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プラン名、部屋タイプ、合計金額が表示される。</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ゴウケイキンガク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>追加プラン確認機能</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
@@ -2183,6 +2167,35 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラン名、部屋タイプ、合計金額が表示される。
+部屋指定なしの場合はプラン名と金額のみ</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ゴウケイキンガク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ヘヤシテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キンガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3955,10 +3968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G42"/>
+  <dimension ref="B1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4298,13 +4311,13 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="52" t="s">
-        <v>168</v>
+      <c r="D26" s="44" t="s">
+        <v>169</v>
       </c>
       <c r="E26" s="49" t="s">
         <v>61</v>
@@ -4313,35 +4326,31 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="B28" s="42" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="B29" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C29" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D29" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B29" s="2"/>
-      <c r="C29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="51"/>
       <c r="E29" s="49" t="s">
         <v>61</v>
       </c>
@@ -4351,7 +4360,7 @@
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="49" t="s">
@@ -4363,7 +4372,7 @@
     <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="4" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="D31" s="51"/>
       <c r="E31" s="49" t="s">
@@ -4375,7 +4384,7 @@
     <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="4" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="49" t="s">
@@ -4387,7 +4396,7 @@
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
       <c r="C33" s="4" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="D33" s="51"/>
       <c r="E33" s="49" t="s">
@@ -4399,7 +4408,7 @@
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
       <c r="C34" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D34" s="51"/>
       <c r="E34" s="49" t="s">
@@ -4409,55 +4418,59 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D35" s="51"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="E35" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="49"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D37" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E37" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="2"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="4"/>
       <c r="F37" s="49"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="4"/>
       <c r="D38" s="51"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="1"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="51"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="49"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="2"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="4"/>
       <c r="D40" s="51"/>
       <c r="E40" s="4"/>
@@ -4473,12 +4486,20 @@
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="4"/>
       <c r="D42" s="51"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="G42" s="49"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Planisphereサイト_テスト仕様書.xlsx
+++ b/Planisphereサイト_テスト仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF8B00F-E4F0-4AD2-9604-A20C8F225D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4CEF1F-FAA1-4936-AAFA-781AFAEAE43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様変更要件_テスト充足性" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="179">
   <si>
     <t>機能要件</t>
     <rPh sb="0" eb="2">
@@ -431,16 +431,6 @@
   </si>
   <si>
     <t>ソフトウェアを同じ環境で他のソフトウェアと共存できることを表します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Chrome on WindowsとChrome on Macとで、動作することの確認。</t>
-    <rPh sb="35" eb="37">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カクニン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2196,6 +2186,148 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計料金</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＝（宿泊基本料金（土日は25%アップ）×人数×連泊数）＋（朝食料金×人数×連泊数）＋（オプションプラン料金×人数）</t>
+    <rPh sb="2" eb="4">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>キホンリョウキン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドニチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>レンパクスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>チョウショク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>レンパクスウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初日と最終日と連泊数</t>
+    <rPh sb="0" eb="2">
+      <t>ショニチ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サイシュウビ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>レンパクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＊名様</t>
+    <rPh sb="1" eb="3">
+      <t>メイサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラン毎に表示</t>
+    <rPh sb="3" eb="4">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＊様</t>
+    <rPh sb="1" eb="2">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約画面で入力した内容。140文字まで</t>
+    <rPh sb="0" eb="4">
+      <t>ヨヤクガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約画面で選択・入力した内容</t>
+    <rPh sb="0" eb="4">
+      <t>ヨヤクガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約確定したのち、「お待ちしております」メッセージが出ることの確認</t>
+    <rPh sb="0" eb="4">
+      <t>ヨヤクカクテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Chrome on WindowsとEDGE on WindowsとFirefox on Windowsとで、動作することの確認。</t>
+    <rPh sb="56" eb="58">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2514,7 +2646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2647,9 +2779,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2723,6 +2852,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3968,10 +4108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G43"/>
+  <dimension ref="B1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3986,11 +4126,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="72.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
@@ -4011,244 +4151,244 @@
     </row>
     <row r="3" spans="2:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>62</v>
+      <c r="E3" s="48" t="s">
+        <v>61</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54" t="s">
-        <v>123</v>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>61</v>
+        <v>120</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54" t="s">
-        <v>122</v>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>61</v>
+        <v>123</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="43"/>
-      <c r="C6" s="54"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="49"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="54"/>
+      <c r="B7" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="53"/>
       <c r="D7" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>61</v>
+        <v>148</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>61</v>
+        <v>154</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>61</v>
+        <v>155</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="49"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>122</v>
+        <v>156</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>61</v>
+        <v>125</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="53"/>
-      <c r="C12" s="54" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>125</v>
+      <c r="B13" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>61</v>
+        <v>126</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="49"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="43"/>
-      <c r="C15" s="54"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="44"/>
-      <c r="E15" s="49"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="D16" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>61</v>
+      <c r="E16" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="43"/>
-      <c r="C17" s="54"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="44"/>
-      <c r="E17" s="49"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" ht="112.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="53" t="s">
-        <v>64</v>
+      <c r="B18" s="52" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>61</v>
+        <v>136</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="49" t="s">
-        <v>61</v>
+      <c r="G18" s="48" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="153.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>62</v>
+        <v>132</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>61</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="49" t="s">
-        <v>61</v>
+      <c r="G19" s="48" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="111" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>61</v>
+        <v>133</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="49"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="2:7" ht="72" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>61</v>
+      <c r="E21" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -4256,29 +4396,29 @@
     <row r="22" spans="2:7" ht="90" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="49" t="s">
-        <v>61</v>
+      <c r="G22" s="48" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="90" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>61</v>
+        <v>137</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -4286,13 +4426,13 @@
     <row r="24" spans="2:7" ht="90" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>61</v>
+        <v>138</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -4300,13 +4440,13 @@
     <row r="25" spans="2:7" ht="36" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>61</v>
+      <c r="E25" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -4314,13 +4454,13 @@
     <row r="26" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>61</v>
+        <v>168</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -4328,143 +4468,155 @@
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="26"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="49"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="51"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7" ht="36" x14ac:dyDescent="0.45">
       <c r="B29" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="49"/>
+        <v>72</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="48"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="49"/>
+        <v>69</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="48"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="49"/>
+        <v>70</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="48"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="49"/>
+        <v>167</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="48"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
       <c r="C33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="49"/>
+        <v>71</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="48"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
       <c r="C34" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="49"/>
+        <v>142</v>
+      </c>
+      <c r="D34" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="48"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="2"/>
       <c r="C35" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="49"/>
+        <v>141</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="48"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="51"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="49"/>
+      <c r="E37" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="48"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="2"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="51"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="49"/>
+      <c r="F38" s="48"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="51"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -4472,34 +4624,42 @@
     <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="51"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="49"/>
+      <c r="G40" s="48"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="2"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="51"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="49"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="2"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="51"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="49"/>
+      <c r="G42" s="48"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="51"/>
+      <c r="D43" s="50"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B45" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="75" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4516,8 +4676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:I34"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4535,23 +4695,23 @@
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="F4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="84.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="69" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -4561,47 +4721,47 @@
         <v>5</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>61</v>
+        <v>160</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" ht="21.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
-      <c r="C6" s="71"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="54" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="49"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="2:9" ht="144.44999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="10"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="64" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="64" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="49"/>
+        <v>162</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="48"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="2:9" ht="106.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12"/>
-      <c r="C8" s="72"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
@@ -4609,33 +4769,33 @@
         <v>10</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="49"/>
+        <v>161</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="48"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="12"/>
-      <c r="C9" s="72"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="49" t="s">
-        <v>61</v>
+      <c r="H9" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="12"/>
-      <c r="C10" s="72"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="16"/>
       <c r="E10" s="45"/>
       <c r="F10" s="4"/>
@@ -4645,21 +4805,21 @@
     </row>
     <row r="11" spans="2:9" ht="103.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="17"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="57" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="57" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="49"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B12" s="18"/>
-      <c r="C12" s="73"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="23" t="s">
         <v>14</v>
       </c>
@@ -4673,7 +4833,7 @@
       <c r="B13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="66" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -4685,11 +4845,11 @@
       <c r="F13" s="40"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="49"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="2:9" ht="142.94999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="20"/>
-      <c r="C14" s="68"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="21" t="s">
         <v>19</v>
       </c>
@@ -4697,17 +4857,17 @@
         <v>20</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" s="49"/>
+        <v>153</v>
+      </c>
+      <c r="G14" s="48"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="49" t="s">
-        <v>61</v>
+      <c r="I14" s="48" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="71.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="20"/>
-      <c r="C15" s="68"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="23" t="s">
         <v>21</v>
       </c>
@@ -4715,20 +4875,20 @@
         <v>22</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="49"/>
+        <v>146</v>
+      </c>
+      <c r="G15" s="48"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B16" s="20"/>
-      <c r="C16" s="74"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="50"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -4737,7 +4897,7 @@
       <c r="B17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="66" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -4747,45 +4907,49 @@
         <v>27</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="49"/>
+        <v>152</v>
+      </c>
+      <c r="G17" s="48"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="49" t="s">
-        <v>61</v>
+      <c r="I17" s="48" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="36" x14ac:dyDescent="0.45">
       <c r="B18" s="27"/>
-      <c r="C18" s="68"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="50"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9" ht="72.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="27"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>60</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="27"/>
-      <c r="C20" s="68"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="21" t="s">
         <v>32</v>
       </c>
@@ -4793,22 +4957,22 @@
         <v>33</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>61</v>
+        <v>147</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B21" s="28"/>
-      <c r="C21" s="69"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="30"/>
-      <c r="F21" s="50"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -4817,7 +4981,7 @@
       <c r="B22" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="66" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -4828,31 +4992,31 @@
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="49"/>
+      <c r="H22" s="48"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B23" s="32"/>
-      <c r="C23" s="68"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="50"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B24" s="34"/>
-      <c r="C24" s="69"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="30"/>
-      <c r="F24" s="50"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -4861,7 +5025,7 @@
       <c r="B25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="66" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="23" t="s">
@@ -4870,42 +5034,42 @@
       <c r="E25" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="50"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="2:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="32"/>
-      <c r="C26" s="68"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="50"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B27" s="32"/>
-      <c r="C27" s="68"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="23" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="59"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="49"/>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B28" s="32"/>
-      <c r="C28" s="68"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="23" t="s">
         <v>48</v>
       </c>
@@ -4913,18 +5077,18 @@
         <v>49</v>
       </c>
       <c r="F28" s="40"/>
-      <c r="G28" s="49"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B29" s="32"/>
-      <c r="C29" s="69"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="30"/>
-      <c r="F29" s="50"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -4933,7 +5097,7 @@
       <c r="B30" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="66" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="36" t="s">
@@ -4942,14 +5106,14 @@
       <c r="E30" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="50"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="2:9" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
-      <c r="C31" s="68"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="35" t="s">
         <v>54</v>
       </c>
@@ -4957,50 +5121,50 @@
         <v>55</v>
       </c>
       <c r="F31" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="48" t="s">
         <v>60</v>
-      </c>
-      <c r="G31" s="49" t="s">
-        <v>61</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="2:9" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
-      <c r="C32" s="68"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="60"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
-      <c r="C33" s="68"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="36" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="61"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B34" s="37"/>
-      <c r="C34" s="69"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="33"/>
-      <c r="F34" s="50"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -5038,30 +5202,30 @@
   <sheetData>
     <row r="2" spans="2:8" ht="388.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="137.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="53"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="396" x14ac:dyDescent="0.45">
       <c r="B4" s="43"/>
       <c r="C4" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="180" x14ac:dyDescent="0.45">
       <c r="B5" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
@@ -5070,331 +5234,331 @@
     </row>
     <row r="7" spans="2:8" ht="252" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="62"/>
+        <v>117</v>
+      </c>
+      <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="43"/>
       <c r="C8" s="26"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C10" s="63"/>
-      <c r="D10" s="63" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="F10" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="G10" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="H10" s="62"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C11" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="63"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C11" s="63" t="s">
+      <c r="D11" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="E11" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="F11" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="G11" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="H11" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="63" t="s">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C12" s="62" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C12" s="63" t="s">
+      <c r="D12" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="F12" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C13" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C14" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="F14" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="G15" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="63" t="s">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C16" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="63" t="s">
+      <c r="F16" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="63" t="s">
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="F17" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C19" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C20" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C21" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="63" t="s">
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C22" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="E22" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C14" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="63" t="s">
+      <c r="F22" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C23" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C24" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C25" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="62" t="s">
         <v>102</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C15" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="63" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="63" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="63" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5416,17 +5580,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
